--- a/data/trans_orig/Q04C_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q04C_2023-Dificultad-trans_orig.xlsx
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>82.13334991650422</v>
+        <v>81.97068998819013</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>84.16876992210349</v>
+        <v>84.08296913066052</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>84.04921543895399</v>
+        <v>83.99750857284184</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>87.65997585492315</v>
+        <v>87.61122554501256</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>88.21744728825966</v>
+        <v>88.61481888317249</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>87.56856325735008</v>
+        <v>87.3979767557029</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>92.79376391299091</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>93.06457515627503</v>
+        <v>93.06457515627501</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>92.93465347155099</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>91.04817175583703</v>
+        <v>90.83497243014894</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>91.5072901561462</v>
+        <v>91.53556578562737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>91.83301588565072</v>
+        <v>91.80139083048272</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>94.64562342497241</v>
+        <v>94.82547928979305</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>94.57626045117901</v>
+        <v>94.51702696967436</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>94.17230751676543</v>
+        <v>94.22153525445346</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>102.1113072644017</v>
+        <v>102.0359079497953</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>100.0856104561033</v>
+        <v>100.186218467036</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>101.7619478089797</v>
+        <v>101.5497467164386</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>108.8704583093623</v>
+        <v>108.8383431379224</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>104.0018767574373</v>
+        <v>103.9444770438079</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>105.741412019962</v>
+        <v>105.5154591257155</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>105.9191747049673</v>
+        <v>105.7669978049117</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>105.3465240877839</v>
+        <v>105.2470891545674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106.4501939079451</v>
+        <v>106.3287743609302</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>113.2209460458972</v>
+        <v>113.2623776883327</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>110.3713185306034</v>
+        <v>110.2625134810823</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>111.0278076374328</v>
+        <v>111.3850010184481</v>
       </c>
     </row>
     <row r="16">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>99.71184461785958</v>
+        <v>99.7118446178596</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>97.9951650933955</v>
+        <v>97.99516509339549</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>98.85169069798451</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>98.19362724801773</v>
+        <v>98.20931393233369</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>97.02843901819402</v>
+        <v>96.92391974548592</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97.91587723546792</v>
+        <v>97.91136298374727</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>101.482647352736</v>
+        <v>101.4871056075328</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>99.12280317099439</v>
+        <v>99.0046111469694</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>99.88460418578833</v>
+        <v>99.8631476045605</v>
       </c>
     </row>
     <row r="19">
